--- a/assets/Excel/Items/SubWeaponComponentsData.xlsx
+++ b/assets/Excel/Items/SubWeaponComponentsData.xlsx
@@ -1,48 +1,543 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="23040" windowHeight="9564" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Connective" sheetId="1" r:id="rId1"/>
+    <sheet name="Damage" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>Domian</t>
+  </si>
+  <si>
+    <t>ObjectNumber_Mult</t>
+  </si>
+  <si>
+    <t>AttackSpeed_Mult</t>
+  </si>
+  <si>
+    <t>Damage_Mult</t>
+  </si>
+  <si>
+    <t>ElasticFactor</t>
+  </si>
+  <si>
+    <t>BulletVelocity</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>子组件的ID，number</t>
+  </si>
+  <si>
+    <t>子组件名字，string</t>
+  </si>
+  <si>
+    <t>子组件描述</t>
+  </si>
+  <si>
+    <t>贴图名称</t>
+  </si>
+  <si>
+    <t>子组件类型</t>
+  </si>
+  <si>
+    <t>物体数量倍数</t>
+  </si>
+  <si>
+    <t>攻击速度倍数</t>
+  </si>
+  <si>
+    <t>伤害倍率</t>
+  </si>
+  <si>
+    <t>弹性系数</t>
+  </si>
+  <si>
+    <t>下一单位的基础速度</t>
+  </si>
+  <si>
+    <t>对下一单位的力（牛顿）</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>AAAAAAA</t>
+  </si>
+  <si>
+    <t>测试物品A，连接型，弹簧</t>
+  </si>
+  <si>
+    <t>Connective</t>
+  </si>
+  <si>
+    <t>BBBBBBB</t>
+  </si>
+  <si>
+    <t>测试物品B，连接型，攻击速度+</t>
+  </si>
+  <si>
+    <t>CCCCCCC</t>
+  </si>
+  <si>
+    <t>测试物品C，连接型，物体倍数</t>
+  </si>
+  <si>
+    <t>BaseDamage</t>
+  </si>
+  <si>
+    <t>isDOT</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>isPercentage</t>
+  </si>
+  <si>
+    <t>PercentFactor</t>
+  </si>
+  <si>
+    <t>KickBackForce</t>
+  </si>
+  <si>
+    <t>基础伤害值</t>
+  </si>
+  <si>
+    <t>是否持续伤害</t>
+  </si>
+  <si>
+    <t>伤害效果持续时间</t>
+  </si>
+  <si>
+    <t>是否百分比</t>
+  </si>
+  <si>
+    <t>百分比数值</t>
+  </si>
+  <si>
+    <t>对受攻击物体的力（牛顿）</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>测试物品A，伤害型，普通</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>测试物品B，伤害型，持续伤害</t>
+  </si>
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>测试物品C，伤害型，剧烈击退</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,9 +545,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -61,10 +798,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1139,600 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="19.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="23.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="38.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="15.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="21.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="24.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="29.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="17.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="19.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="20.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="23.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>2003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="18.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="22.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="18.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="24.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="21.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="15.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="22.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="25.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>2101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>2102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>2103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>